--- a/Report 1 ngày/Titkok/Ecombest_003.xlsx
+++ b/Report 1 ngày/Titkok/Ecombest_003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="305">
   <si>
     <t>Campaign name</t>
   </si>
@@ -43,15 +43,15 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
+  </si>
+  <si>
     <t>ProductSale_First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - Personalized 2-Layered Wooden Plaque With Stand_ProductSales_PSTA361ELE2901WP_040424</t>
   </si>
   <si>
     <t>ProductSale_Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case_ProductSales_CETT958CIN2175WP_150324</t>
   </si>
   <si>
-    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
-  </si>
-  <si>
     <t>ProductSale_Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH638ELE3092WP_040424</t>
   </si>
   <si>
@@ -901,34 +901,31 @@
     <t>-</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>USD</t>
@@ -1332,10 +1329,10 @@
         <v>292</v>
       </c>
       <c r="C2">
-        <v>75.34999999999999</v>
+        <v>24.73</v>
       </c>
       <c r="D2">
-        <v>2.06</v>
+        <v>4.41</v>
       </c>
       <c r="E2" t="s">
         <v>294</v>
@@ -1347,10 +1344,10 @@
         <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1361,10 +1358,10 @@
         <v>292</v>
       </c>
       <c r="C3">
-        <v>59.09</v>
+        <v>542.04</v>
       </c>
       <c r="D3">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="E3" t="s">
         <v>294</v>
@@ -1376,10 +1373,10 @@
         <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1390,10 +1387,10 @@
         <v>292</v>
       </c>
       <c r="C4">
-        <v>35.71</v>
+        <v>100.5</v>
       </c>
       <c r="D4">
-        <v>0.96</v>
+        <v>0.66</v>
       </c>
       <c r="E4" t="s">
         <v>294</v>
@@ -1405,10 +1402,10 @@
         <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1437,7 +1434,7 @@
         <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1445,10 +1442,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C6">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1460,13 +1457,13 @@
         <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1495,7 +1492,7 @@
         <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1506,7 +1503,7 @@
         <v>293</v>
       </c>
       <c r="C8">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1535,7 +1532,7 @@
         <v>293</v>
       </c>
       <c r="C9">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1553,7 +1550,7 @@
         <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1561,10 +1558,10 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C10">
-        <v>21.35</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1582,7 +1579,7 @@
         <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1611,7 +1608,7 @@
         <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1640,7 +1637,7 @@
         <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1669,7 +1666,7 @@
         <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1698,7 +1695,7 @@
         <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1727,7 +1724,7 @@
         <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1756,7 +1753,7 @@
         <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1785,7 +1782,7 @@
         <v>298</v>
       </c>
       <c r="I17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1814,7 +1811,7 @@
         <v>298</v>
       </c>
       <c r="I18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1843,7 +1840,7 @@
         <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1872,7 +1869,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1901,7 +1898,7 @@
         <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1930,7 +1927,7 @@
         <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1959,7 +1956,7 @@
         <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1988,7 +1985,7 @@
         <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2017,7 +2014,7 @@
         <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2046,7 +2043,7 @@
         <v>298</v>
       </c>
       <c r="I26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2075,7 +2072,7 @@
         <v>298</v>
       </c>
       <c r="I27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2104,7 +2101,7 @@
         <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2133,7 +2130,7 @@
         <v>298</v>
       </c>
       <c r="I29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2162,7 +2159,7 @@
         <v>298</v>
       </c>
       <c r="I30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2191,7 +2188,7 @@
         <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2220,7 +2217,7 @@
         <v>298</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2249,7 +2246,7 @@
         <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2278,7 +2275,7 @@
         <v>298</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2307,7 +2304,7 @@
         <v>298</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2336,7 +2333,7 @@
         <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2365,7 +2362,7 @@
         <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2394,7 +2391,7 @@
         <v>298</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2423,7 +2420,7 @@
         <v>298</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2452,7 +2449,7 @@
         <v>298</v>
       </c>
       <c r="I40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2481,7 +2478,7 @@
         <v>298</v>
       </c>
       <c r="I41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2510,7 +2507,7 @@
         <v>298</v>
       </c>
       <c r="I42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2539,7 +2536,7 @@
         <v>298</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2568,7 +2565,7 @@
         <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2597,7 +2594,7 @@
         <v>298</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2626,7 +2623,7 @@
         <v>298</v>
       </c>
       <c r="I46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2655,7 +2652,7 @@
         <v>298</v>
       </c>
       <c r="I47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2684,7 +2681,7 @@
         <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2713,7 +2710,7 @@
         <v>298</v>
       </c>
       <c r="I49" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2742,7 +2739,7 @@
         <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2771,7 +2768,7 @@
         <v>298</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2800,7 +2797,7 @@
         <v>298</v>
       </c>
       <c r="I52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2829,7 +2826,7 @@
         <v>298</v>
       </c>
       <c r="I53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2858,7 +2855,7 @@
         <v>298</v>
       </c>
       <c r="I54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2887,7 +2884,7 @@
         <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2916,7 +2913,7 @@
         <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2945,7 +2942,7 @@
         <v>298</v>
       </c>
       <c r="I57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2974,7 +2971,7 @@
         <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3003,7 +3000,7 @@
         <v>298</v>
       </c>
       <c r="I59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3032,7 +3029,7 @@
         <v>298</v>
       </c>
       <c r="I60" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3061,7 +3058,7 @@
         <v>298</v>
       </c>
       <c r="I61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3090,7 +3087,7 @@
         <v>298</v>
       </c>
       <c r="I62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3119,7 +3116,7 @@
         <v>298</v>
       </c>
       <c r="I63" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3148,7 +3145,7 @@
         <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3177,7 +3174,7 @@
         <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3206,7 +3203,7 @@
         <v>298</v>
       </c>
       <c r="I66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3235,7 +3232,7 @@
         <v>298</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3264,7 +3261,7 @@
         <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3293,7 +3290,7 @@
         <v>298</v>
       </c>
       <c r="I69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3322,7 +3319,7 @@
         <v>298</v>
       </c>
       <c r="I70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3351,7 +3348,7 @@
         <v>298</v>
       </c>
       <c r="I71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3380,7 +3377,7 @@
         <v>298</v>
       </c>
       <c r="I72" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3409,7 +3406,7 @@
         <v>298</v>
       </c>
       <c r="I73" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3438,7 +3435,7 @@
         <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3467,7 +3464,7 @@
         <v>298</v>
       </c>
       <c r="I75" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3496,7 +3493,7 @@
         <v>298</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3525,7 +3522,7 @@
         <v>298</v>
       </c>
       <c r="I77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3554,7 +3551,7 @@
         <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3583,7 +3580,7 @@
         <v>298</v>
       </c>
       <c r="I79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3612,7 +3609,7 @@
         <v>298</v>
       </c>
       <c r="I80" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3641,7 +3638,7 @@
         <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3670,7 +3667,7 @@
         <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3699,7 +3696,7 @@
         <v>298</v>
       </c>
       <c r="I83" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3728,7 +3725,7 @@
         <v>298</v>
       </c>
       <c r="I84" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3757,7 +3754,7 @@
         <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3786,7 +3783,7 @@
         <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3815,7 +3812,7 @@
         <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3844,7 +3841,7 @@
         <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3873,7 +3870,7 @@
         <v>298</v>
       </c>
       <c r="I89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3902,7 +3899,7 @@
         <v>298</v>
       </c>
       <c r="I90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3931,7 +3928,7 @@
         <v>298</v>
       </c>
       <c r="I91" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3960,7 +3957,7 @@
         <v>298</v>
       </c>
       <c r="I92" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3989,7 +3986,7 @@
         <v>298</v>
       </c>
       <c r="I93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4018,7 +4015,7 @@
         <v>298</v>
       </c>
       <c r="I94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4047,7 +4044,7 @@
         <v>298</v>
       </c>
       <c r="I95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4076,7 +4073,7 @@
         <v>298</v>
       </c>
       <c r="I96" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4105,7 +4102,7 @@
         <v>298</v>
       </c>
       <c r="I97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4134,7 +4131,7 @@
         <v>298</v>
       </c>
       <c r="I98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4163,7 +4160,7 @@
         <v>298</v>
       </c>
       <c r="I99" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4192,7 +4189,7 @@
         <v>298</v>
       </c>
       <c r="I100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4221,7 +4218,7 @@
         <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4250,7 +4247,7 @@
         <v>298</v>
       </c>
       <c r="I102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4279,7 +4276,7 @@
         <v>298</v>
       </c>
       <c r="I103" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4308,7 +4305,7 @@
         <v>298</v>
       </c>
       <c r="I104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4337,7 +4334,7 @@
         <v>298</v>
       </c>
       <c r="I105" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4366,7 +4363,7 @@
         <v>298</v>
       </c>
       <c r="I106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4395,7 +4392,7 @@
         <v>298</v>
       </c>
       <c r="I107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4424,7 +4421,7 @@
         <v>298</v>
       </c>
       <c r="I108" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4453,7 +4450,7 @@
         <v>298</v>
       </c>
       <c r="I109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4482,7 +4479,7 @@
         <v>298</v>
       </c>
       <c r="I110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4511,7 +4508,7 @@
         <v>298</v>
       </c>
       <c r="I111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4540,7 +4537,7 @@
         <v>298</v>
       </c>
       <c r="I112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4569,7 +4566,7 @@
         <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4598,7 +4595,7 @@
         <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4627,7 +4624,7 @@
         <v>298</v>
       </c>
       <c r="I115" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4656,7 +4653,7 @@
         <v>298</v>
       </c>
       <c r="I116" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4685,7 +4682,7 @@
         <v>298</v>
       </c>
       <c r="I117" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4714,7 +4711,7 @@
         <v>298</v>
       </c>
       <c r="I118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4743,7 +4740,7 @@
         <v>298</v>
       </c>
       <c r="I119" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4772,7 +4769,7 @@
         <v>298</v>
       </c>
       <c r="I120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4801,7 +4798,7 @@
         <v>298</v>
       </c>
       <c r="I121" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4830,7 +4827,7 @@
         <v>298</v>
       </c>
       <c r="I122" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4859,7 +4856,7 @@
         <v>298</v>
       </c>
       <c r="I123" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4888,7 +4885,7 @@
         <v>298</v>
       </c>
       <c r="I124" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4917,7 +4914,7 @@
         <v>298</v>
       </c>
       <c r="I125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4946,7 +4943,7 @@
         <v>298</v>
       </c>
       <c r="I126" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4975,7 +4972,7 @@
         <v>298</v>
       </c>
       <c r="I127" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5004,7 +5001,7 @@
         <v>298</v>
       </c>
       <c r="I128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5033,7 +5030,7 @@
         <v>298</v>
       </c>
       <c r="I129" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5062,7 +5059,7 @@
         <v>298</v>
       </c>
       <c r="I130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5091,7 +5088,7 @@
         <v>298</v>
       </c>
       <c r="I131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5120,7 +5117,7 @@
         <v>298</v>
       </c>
       <c r="I132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5149,7 +5146,7 @@
         <v>298</v>
       </c>
       <c r="I133" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5178,7 +5175,7 @@
         <v>298</v>
       </c>
       <c r="I134" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5207,7 +5204,7 @@
         <v>298</v>
       </c>
       <c r="I135" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5236,7 +5233,7 @@
         <v>298</v>
       </c>
       <c r="I136" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5265,7 +5262,7 @@
         <v>298</v>
       </c>
       <c r="I137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5294,7 +5291,7 @@
         <v>298</v>
       </c>
       <c r="I138" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5323,7 +5320,7 @@
         <v>298</v>
       </c>
       <c r="I139" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5352,7 +5349,7 @@
         <v>298</v>
       </c>
       <c r="I140" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5381,7 +5378,7 @@
         <v>298</v>
       </c>
       <c r="I141" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5410,7 +5407,7 @@
         <v>298</v>
       </c>
       <c r="I142" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5439,7 +5436,7 @@
         <v>298</v>
       </c>
       <c r="I143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5468,7 +5465,7 @@
         <v>298</v>
       </c>
       <c r="I144" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5497,7 +5494,7 @@
         <v>298</v>
       </c>
       <c r="I145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5526,7 +5523,7 @@
         <v>298</v>
       </c>
       <c r="I146" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5555,7 +5552,7 @@
         <v>298</v>
       </c>
       <c r="I147" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5584,7 +5581,7 @@
         <v>298</v>
       </c>
       <c r="I148" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5613,7 +5610,7 @@
         <v>298</v>
       </c>
       <c r="I149" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5642,7 +5639,7 @@
         <v>298</v>
       </c>
       <c r="I150" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5671,7 +5668,7 @@
         <v>298</v>
       </c>
       <c r="I151" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5700,7 +5697,7 @@
         <v>298</v>
       </c>
       <c r="I152" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5729,7 +5726,7 @@
         <v>298</v>
       </c>
       <c r="I153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5758,7 +5755,7 @@
         <v>298</v>
       </c>
       <c r="I154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5787,7 +5784,7 @@
         <v>298</v>
       </c>
       <c r="I155" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5816,7 +5813,7 @@
         <v>298</v>
       </c>
       <c r="I156" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5845,7 +5842,7 @@
         <v>298</v>
       </c>
       <c r="I157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5874,7 +5871,7 @@
         <v>298</v>
       </c>
       <c r="I158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5903,7 +5900,7 @@
         <v>298</v>
       </c>
       <c r="I159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5932,7 +5929,7 @@
         <v>298</v>
       </c>
       <c r="I160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5961,7 +5958,7 @@
         <v>298</v>
       </c>
       <c r="I161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5990,7 +5987,7 @@
         <v>298</v>
       </c>
       <c r="I162" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6019,7 +6016,7 @@
         <v>298</v>
       </c>
       <c r="I163" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6048,7 +6045,7 @@
         <v>298</v>
       </c>
       <c r="I164" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6077,7 +6074,7 @@
         <v>298</v>
       </c>
       <c r="I165" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6106,7 +6103,7 @@
         <v>298</v>
       </c>
       <c r="I166" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6135,7 +6132,7 @@
         <v>298</v>
       </c>
       <c r="I167" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6164,7 +6161,7 @@
         <v>298</v>
       </c>
       <c r="I168" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6193,7 +6190,7 @@
         <v>298</v>
       </c>
       <c r="I169" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6222,7 +6219,7 @@
         <v>298</v>
       </c>
       <c r="I170" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6251,7 +6248,7 @@
         <v>298</v>
       </c>
       <c r="I171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6280,7 +6277,7 @@
         <v>298</v>
       </c>
       <c r="I172" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6309,7 +6306,7 @@
         <v>298</v>
       </c>
       <c r="I173" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6338,7 +6335,7 @@
         <v>298</v>
       </c>
       <c r="I174" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6367,7 +6364,7 @@
         <v>298</v>
       </c>
       <c r="I175" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6396,7 +6393,7 @@
         <v>298</v>
       </c>
       <c r="I176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6425,7 +6422,7 @@
         <v>298</v>
       </c>
       <c r="I177" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6454,7 +6451,7 @@
         <v>298</v>
       </c>
       <c r="I178" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6483,7 +6480,7 @@
         <v>298</v>
       </c>
       <c r="I179" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6512,7 +6509,7 @@
         <v>298</v>
       </c>
       <c r="I180" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6541,7 +6538,7 @@
         <v>298</v>
       </c>
       <c r="I181" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6570,7 +6567,7 @@
         <v>298</v>
       </c>
       <c r="I182" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6599,7 +6596,7 @@
         <v>298</v>
       </c>
       <c r="I183" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6628,7 +6625,7 @@
         <v>298</v>
       </c>
       <c r="I184" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6657,7 +6654,7 @@
         <v>298</v>
       </c>
       <c r="I185" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6686,7 +6683,7 @@
         <v>298</v>
       </c>
       <c r="I186" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6715,7 +6712,7 @@
         <v>298</v>
       </c>
       <c r="I187" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6744,7 +6741,7 @@
         <v>298</v>
       </c>
       <c r="I188" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6773,7 +6770,7 @@
         <v>298</v>
       </c>
       <c r="I189" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6802,7 +6799,7 @@
         <v>298</v>
       </c>
       <c r="I190" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6831,7 +6828,7 @@
         <v>298</v>
       </c>
       <c r="I191" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6860,7 +6857,7 @@
         <v>298</v>
       </c>
       <c r="I192" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6889,7 +6886,7 @@
         <v>298</v>
       </c>
       <c r="I193" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6918,7 +6915,7 @@
         <v>298</v>
       </c>
       <c r="I194" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6947,7 +6944,7 @@
         <v>298</v>
       </c>
       <c r="I195" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6976,7 +6973,7 @@
         <v>298</v>
       </c>
       <c r="I196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7005,7 +7002,7 @@
         <v>298</v>
       </c>
       <c r="I197" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7034,7 +7031,7 @@
         <v>298</v>
       </c>
       <c r="I198" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7063,7 +7060,7 @@
         <v>298</v>
       </c>
       <c r="I199" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7092,7 +7089,7 @@
         <v>298</v>
       </c>
       <c r="I200" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7121,7 +7118,7 @@
         <v>298</v>
       </c>
       <c r="I201" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7150,7 +7147,7 @@
         <v>298</v>
       </c>
       <c r="I202" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7179,7 +7176,7 @@
         <v>298</v>
       </c>
       <c r="I203" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7208,7 +7205,7 @@
         <v>298</v>
       </c>
       <c r="I204" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7237,7 +7234,7 @@
         <v>298</v>
       </c>
       <c r="I205" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7266,7 +7263,7 @@
         <v>298</v>
       </c>
       <c r="I206" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7295,7 +7292,7 @@
         <v>298</v>
       </c>
       <c r="I207" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7324,7 +7321,7 @@
         <v>298</v>
       </c>
       <c r="I208" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7353,7 +7350,7 @@
         <v>298</v>
       </c>
       <c r="I209" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7382,7 +7379,7 @@
         <v>298</v>
       </c>
       <c r="I210" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7411,7 +7408,7 @@
         <v>298</v>
       </c>
       <c r="I211" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7440,7 +7437,7 @@
         <v>298</v>
       </c>
       <c r="I212" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7469,7 +7466,7 @@
         <v>298</v>
       </c>
       <c r="I213" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7498,7 +7495,7 @@
         <v>298</v>
       </c>
       <c r="I214" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7527,7 +7524,7 @@
         <v>298</v>
       </c>
       <c r="I215" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7556,7 +7553,7 @@
         <v>298</v>
       </c>
       <c r="I216" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7585,7 +7582,7 @@
         <v>298</v>
       </c>
       <c r="I217" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7614,7 +7611,7 @@
         <v>298</v>
       </c>
       <c r="I218" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7643,7 +7640,7 @@
         <v>298</v>
       </c>
       <c r="I219" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7672,7 +7669,7 @@
         <v>298</v>
       </c>
       <c r="I220" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7701,7 +7698,7 @@
         <v>298</v>
       </c>
       <c r="I221" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7730,7 +7727,7 @@
         <v>298</v>
       </c>
       <c r="I222" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7759,7 +7756,7 @@
         <v>298</v>
       </c>
       <c r="I223" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7788,7 +7785,7 @@
         <v>298</v>
       </c>
       <c r="I224" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7817,7 +7814,7 @@
         <v>298</v>
       </c>
       <c r="I225" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7846,7 +7843,7 @@
         <v>298</v>
       </c>
       <c r="I226" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7875,7 +7872,7 @@
         <v>298</v>
       </c>
       <c r="I227" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7904,7 +7901,7 @@
         <v>298</v>
       </c>
       <c r="I228" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7933,7 +7930,7 @@
         <v>298</v>
       </c>
       <c r="I229" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7962,7 +7959,7 @@
         <v>298</v>
       </c>
       <c r="I230" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7991,7 +7988,7 @@
         <v>298</v>
       </c>
       <c r="I231" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8020,7 +8017,7 @@
         <v>298</v>
       </c>
       <c r="I232" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8049,7 +8046,7 @@
         <v>298</v>
       </c>
       <c r="I233" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8078,7 +8075,7 @@
         <v>298</v>
       </c>
       <c r="I234" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8107,7 +8104,7 @@
         <v>298</v>
       </c>
       <c r="I235" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8136,7 +8133,7 @@
         <v>298</v>
       </c>
       <c r="I236" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8165,7 +8162,7 @@
         <v>298</v>
       </c>
       <c r="I237" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8194,7 +8191,7 @@
         <v>298</v>
       </c>
       <c r="I238" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8223,7 +8220,7 @@
         <v>298</v>
       </c>
       <c r="I239" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8252,7 +8249,7 @@
         <v>298</v>
       </c>
       <c r="I240" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8281,7 +8278,7 @@
         <v>298</v>
       </c>
       <c r="I241" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8310,7 +8307,7 @@
         <v>298</v>
       </c>
       <c r="I242" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8339,7 +8336,7 @@
         <v>298</v>
       </c>
       <c r="I243" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8368,7 +8365,7 @@
         <v>298</v>
       </c>
       <c r="I244" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8397,7 +8394,7 @@
         <v>298</v>
       </c>
       <c r="I245" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8426,7 +8423,7 @@
         <v>298</v>
       </c>
       <c r="I246" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8455,7 +8452,7 @@
         <v>298</v>
       </c>
       <c r="I247" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8484,7 +8481,7 @@
         <v>298</v>
       </c>
       <c r="I248" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8513,7 +8510,7 @@
         <v>298</v>
       </c>
       <c r="I249" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8542,7 +8539,7 @@
         <v>298</v>
       </c>
       <c r="I250" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8571,7 +8568,7 @@
         <v>298</v>
       </c>
       <c r="I251" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8600,7 +8597,7 @@
         <v>298</v>
       </c>
       <c r="I252" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8629,7 +8626,7 @@
         <v>298</v>
       </c>
       <c r="I253" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8658,7 +8655,7 @@
         <v>298</v>
       </c>
       <c r="I254" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8687,7 +8684,7 @@
         <v>298</v>
       </c>
       <c r="I255" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8716,7 +8713,7 @@
         <v>298</v>
       </c>
       <c r="I256" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8745,7 +8742,7 @@
         <v>298</v>
       </c>
       <c r="I257" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8774,7 +8771,7 @@
         <v>298</v>
       </c>
       <c r="I258" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8803,7 +8800,7 @@
         <v>298</v>
       </c>
       <c r="I259" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8832,7 +8829,7 @@
         <v>298</v>
       </c>
       <c r="I260" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8861,7 +8858,7 @@
         <v>298</v>
       </c>
       <c r="I261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8890,7 +8887,7 @@
         <v>298</v>
       </c>
       <c r="I262" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8919,7 +8916,7 @@
         <v>298</v>
       </c>
       <c r="I263" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8948,7 +8945,7 @@
         <v>298</v>
       </c>
       <c r="I264" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8977,7 +8974,7 @@
         <v>298</v>
       </c>
       <c r="I265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9006,7 +9003,7 @@
         <v>298</v>
       </c>
       <c r="I266" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9035,7 +9032,7 @@
         <v>298</v>
       </c>
       <c r="I267" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9064,7 +9061,7 @@
         <v>298</v>
       </c>
       <c r="I268" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9093,7 +9090,7 @@
         <v>298</v>
       </c>
       <c r="I269" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9122,7 +9119,7 @@
         <v>298</v>
       </c>
       <c r="I270" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9151,7 +9148,7 @@
         <v>298</v>
       </c>
       <c r="I271" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9180,7 +9177,7 @@
         <v>298</v>
       </c>
       <c r="I272" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9209,7 +9206,7 @@
         <v>298</v>
       </c>
       <c r="I273" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9238,7 +9235,7 @@
         <v>298</v>
       </c>
       <c r="I274" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9267,7 +9264,7 @@
         <v>298</v>
       </c>
       <c r="I275" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9296,7 +9293,7 @@
         <v>298</v>
       </c>
       <c r="I276" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9325,7 +9322,7 @@
         <v>298</v>
       </c>
       <c r="I277" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9354,7 +9351,7 @@
         <v>298</v>
       </c>
       <c r="I278" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9383,7 +9380,7 @@
         <v>298</v>
       </c>
       <c r="I279" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9412,7 +9409,7 @@
         <v>298</v>
       </c>
       <c r="I280" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9441,7 +9438,7 @@
         <v>298</v>
       </c>
       <c r="I281" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9470,7 +9467,7 @@
         <v>298</v>
       </c>
       <c r="I282" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9499,7 +9496,7 @@
         <v>298</v>
       </c>
       <c r="I283" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9510,10 +9507,10 @@
         <v>294</v>
       </c>
       <c r="C284">
-        <v>209.55</v>
+        <v>667.27</v>
       </c>
       <c r="D284">
-        <v>1.22</v>
+        <v>1.6</v>
       </c>
       <c r="E284" t="s">
         <v>294</v>
@@ -9522,13 +9519,13 @@
         <v>294</v>
       </c>
       <c r="G284" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H284" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
